--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6768297-08BA-406D-9D8F-DCDA2B77FFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C731ACC-FD4C-4A77-8FF2-C64C328F6DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,26 +55,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>主人公（物理）</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブツリ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>主人公（炎）</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ホノオ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>姫子</t>
     <rPh sb="0" eb="2">
       <t>ヒメコ</t>
@@ -337,6 +317,26 @@
   </si>
   <si>
     <t>max_agi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>主人公(物理)</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>主人公(炎)</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホノオ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1017,35 +1017,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAE9DED"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAE9DED"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1451,16 +1423,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -1469,16 +1441,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2">
         <v>1203</v>
@@ -1499,16 +1471,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2">
         <v>1241</v>
@@ -1529,16 +1501,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2">
         <v>1047</v>
@@ -1559,16 +1531,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>1125</v>
@@ -1589,16 +1561,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2">
         <v>882</v>
@@ -1619,16 +1591,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2">
         <v>1058</v>
@@ -1649,28 +1621,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -1679,28 +1651,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1709,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="2">
         <v>1199</v>
@@ -1739,16 +1711,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2">
         <v>1023</v>
@@ -1769,16 +1741,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2">
         <v>952</v>
@@ -1799,16 +1771,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2">
         <v>1397</v>
@@ -1829,16 +1801,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
         <v>1241</v>
@@ -1859,16 +1831,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2">
         <v>931</v>
@@ -1889,16 +1861,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2">
         <v>1319</v>
@@ -1919,16 +1891,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2">
         <v>1023</v>
@@ -1949,16 +1921,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2">
         <v>987</v>
@@ -1979,16 +1951,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2">
         <v>917</v>
@@ -2009,16 +1981,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2">
         <v>1164</v>
@@ -2039,16 +2011,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2">
         <v>1340</v>
@@ -2069,28 +2041,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -2099,16 +2071,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2">
         <v>892</v>
@@ -2129,16 +2101,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2">
         <v>1319</v>
@@ -2159,16 +2131,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2">
         <v>846</v>
@@ -2189,16 +2161,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2">
         <v>917</v>
@@ -2219,16 +2191,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2">
         <v>1023</v>
@@ -2246,39 +2218,39 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"量子"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"虚数"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>"雷"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"風"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>"氷"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>"炎"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main-01\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C731ACC-FD4C-4A77-8FF2-C64C328F6DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94774F2F-60BF-480B-88AD-89B93BF557DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="15372" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_cha" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -2052,17 +2052,17 @@
       <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>13</v>
+      <c r="F22" s="2">
+        <v>1164</v>
+      </c>
+      <c r="G22" s="2">
+        <v>698</v>
+      </c>
+      <c r="H22" s="2">
+        <v>485</v>
+      </c>
+      <c r="I22" s="2">
+        <v>99</v>
       </c>
       <c r="J22" s="2"/>
     </row>

--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main-01\damageTool-main\data\hsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94774F2F-60BF-480B-88AD-89B93BF557DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4181EEF4-F542-4F61-BDF8-38E33557A9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="15372" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="480" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_cha" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -1653,8 +1653,8 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
+      <c r="C9" s="2">
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -1662,17 +1662,17 @@
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
+      <c r="F9">
+        <v>1047</v>
+      </c>
+      <c r="G9">
+        <v>640</v>
+      </c>
+      <c r="H9">
+        <v>460</v>
+      </c>
+      <c r="I9">
+        <v>107</v>
       </c>
       <c r="J9" s="2"/>
     </row>

--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4181EEF4-F542-4F61-BDF8-38E33557A9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D176E-D59E-4C55-AF3A-32F4BC403ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="480" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9708" yWindow="564" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_cha" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -336,6 +336,23 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ホノオ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>羅刹</t>
+    <rPh sb="0" eb="2">
+      <t>ラセツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>御空</t>
+    <rPh sb="0" eb="1">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソラ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1393,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -2215,6 +2232,64 @@
         <v>98</v>
       </c>
       <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1280</v>
+      </c>
+      <c r="G28" s="1">
+        <v>756</v>
+      </c>
+      <c r="H28" s="1">
+        <v>363</v>
+      </c>
+      <c r="I28" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1">
+        <v>917</v>
+      </c>
+      <c r="G29" s="1">
+        <v>599</v>
+      </c>
+      <c r="H29" s="1">
+        <v>374</v>
+      </c>
+      <c r="I29" s="1">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D176E-D59E-4C55-AF3A-32F4BC403ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00BB32-792D-45E2-A352-DD9F590AC03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9708" yWindow="564" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="924" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_cha" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ヘルタ</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -354,6 +350,41 @@
     <rPh sb="1" eb="2">
       <t>ソラ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>刃</t>
+    <rPh sb="0" eb="1">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ルカ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>飲月</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>符玄</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>リンクス</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1410,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -1440,16 +1471,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -1458,16 +1489,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2">
         <v>1203</v>
@@ -1488,16 +1519,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2">
         <v>1241</v>
@@ -1524,10 +1555,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2">
         <v>1047</v>
@@ -1554,10 +1585,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2">
         <v>1125</v>
@@ -1584,10 +1615,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2">
         <v>882</v>
@@ -1614,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2">
         <v>1058</v>
@@ -1640,26 +1671,26 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
+      <c r="C8" s="2">
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1086</v>
+      </c>
+      <c r="G8" s="2">
+        <v>679</v>
+      </c>
+      <c r="H8" s="2">
+        <v>485</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -1674,10 +1705,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>1047</v>
@@ -1704,10 +1735,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2">
         <v>1199</v>
@@ -1734,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2">
         <v>1023</v>
@@ -1758,16 +1789,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2">
         <v>952</v>
@@ -1788,16 +1819,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2">
         <v>1397</v>
@@ -1818,16 +1849,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2">
         <v>1241</v>
@@ -1848,16 +1879,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2">
         <v>931</v>
@@ -1878,16 +1909,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2">
         <v>1319</v>
@@ -1908,16 +1939,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2">
         <v>1023</v>
@@ -1938,16 +1969,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2">
         <v>987</v>
@@ -1968,16 +1999,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2">
         <v>917</v>
@@ -1998,16 +2029,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2">
         <v>1164</v>
@@ -2028,16 +2059,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2">
         <v>1340</v>
@@ -2058,16 +2089,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2">
         <v>1164</v>
@@ -2088,16 +2119,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2">
         <v>892</v>
@@ -2118,16 +2149,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2">
         <v>1319</v>
@@ -2148,16 +2179,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2">
         <v>846</v>
@@ -2178,16 +2209,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2">
         <v>917</v>
@@ -2208,16 +2239,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2">
         <v>1023</v>
@@ -2238,16 +2269,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1">
         <v>1280</v>
@@ -2267,16 +2298,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="1">
         <v>917</v>
@@ -2289,6 +2320,151 @@
       </c>
       <c r="I29" s="1">
         <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1358</v>
+      </c>
+      <c r="G30" s="1">
+        <v>543</v>
+      </c>
+      <c r="H30" s="1">
+        <v>485</v>
+      </c>
+      <c r="I30" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <v>917</v>
+      </c>
+      <c r="G31" s="1">
+        <v>582</v>
+      </c>
+      <c r="H31" s="1">
+        <v>485</v>
+      </c>
+      <c r="I31" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1241</v>
+      </c>
+      <c r="G32" s="1">
+        <v>698</v>
+      </c>
+      <c r="H32" s="1">
+        <v>363</v>
+      </c>
+      <c r="I32" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1474</v>
+      </c>
+      <c r="G33" s="1">
+        <v>465</v>
+      </c>
+      <c r="H33" s="1">
+        <v>606</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1058</v>
+      </c>
+      <c r="G34" s="1">
+        <v>493</v>
+      </c>
+      <c r="H34" s="1">
+        <v>551</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamuratetsurou/Desktop/名称未設定フォルダ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00BB32-792D-45E2-A352-DD9F590AC03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0ACA6-BB99-3044-AF48-BDE457AC0C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="924" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14060" yWindow="4980" windowWidth="14520" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_cha" sheetId="1" r:id="rId1"/>
@@ -33,37 +33,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>name</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>star</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>destiny</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>element</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>姫子</t>
     <rPh sb="0" eb="2">
       <t>ヒメコ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ヴェルト</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>丹恒</t>
@@ -73,18 +73,18 @@
     <rPh sb="1" eb="2">
       <t>ヒサシ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>三月なのか</t>
     <rPh sb="0" eb="2">
       <t>ミツキ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>カフカ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>銀狼</t>
@@ -94,55 +94,55 @@
     <rPh sb="1" eb="2">
       <t>オオカミ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>アーラン</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>アスター</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ヘルタ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ジェパ―ド</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ブローニャ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ゼーレ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>クラーラ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>サンポ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ペラ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>セーバル</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ナターシャ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>フック</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>景元</t>
@@ -152,7 +152,7 @@
     <rPh sb="1" eb="2">
       <t>ハジメ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>彦卿</t>
@@ -162,14 +162,14 @@
     <rPh sb="1" eb="2">
       <t>キョウ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>白露</t>
     <rPh sb="0" eb="1">
       <t>ビャク</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>停雲</t>
@@ -179,11 +179,11 @@
     <rPh sb="1" eb="2">
       <t>クモ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>素裳</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>青雀</t>
@@ -193,63 +193,63 @@
     <rPh sb="1" eb="2">
       <t>スズメ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>炎</t>
     <rPh sb="0" eb="1">
       <t>ホノオ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>物理</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>虚数</t>
     <rPh sb="0" eb="2">
       <t>キョスウ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>風</t>
     <rPh sb="0" eb="1">
       <t>カゼ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>氷</t>
     <rPh sb="0" eb="1">
       <t>コオリ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>雷</t>
     <rPh sb="0" eb="1">
       <t>カミナリ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>量子</t>
     <rPh sb="0" eb="2">
       <t>リョウシ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>壊滅</t>
     <rPh sb="0" eb="2">
       <t>カイメツ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>存護</t>
@@ -259,7 +259,7 @@
     <rPh sb="1" eb="2">
       <t>マモル</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>巡狩</t>
@@ -269,51 +269,51 @@
     <rPh sb="1" eb="2">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>豊穣</t>
     <rPh sb="0" eb="2">
       <t>ホウジョウ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>調和</t>
     <rPh sb="0" eb="2">
       <t>チョウワ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>虚無</t>
     <rPh sb="0" eb="2">
       <t>キョム</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>知恵</t>
     <rPh sb="0" eb="2">
       <t>チエ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>max_hp</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>max_atk</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>max_def</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>max_agi</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>主人公(物理)</t>
@@ -323,7 +323,7 @@
     <rPh sb="4" eb="6">
       <t>ブツリ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>主人公(炎)</t>
@@ -333,14 +333,14 @@
     <rPh sb="4" eb="5">
       <t>ホノオ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>羅刹</t>
     <rPh sb="0" eb="2">
       <t>ラセツ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>御空</t>
@@ -350,18 +350,18 @@
     <rPh sb="1" eb="2">
       <t>ソラ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>刃</t>
     <rPh sb="0" eb="1">
       <t>ジン</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ルカ</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>飲月</t>
@@ -371,7 +371,7 @@
     <rPh sb="1" eb="2">
       <t>ツキ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>符玄</t>
@@ -381,20 +381,64 @@
     <rPh sb="1" eb="2">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>リンクス</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>鏡流</t>
+    <rPh sb="0" eb="1">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナガレ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>壊滅</t>
+    <rPh sb="0" eb="1">
+      <t>カイメテゥ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>桂乃芬</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>トパーズ&amp;カブ</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>虚無</t>
+    <rPh sb="0" eb="1">
+      <t>キョム</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="19"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -883,141 +927,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,20 +1488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1531,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1514,7 +1561,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1544,7 +1591,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1574,7 +1621,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1604,7 +1651,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1634,7 +1681,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1664,7 +1711,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1694,7 +1741,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1724,7 +1771,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1754,7 +1801,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1784,7 +1831,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1814,7 +1861,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1844,7 +1891,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1874,7 +1921,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1904,7 +1951,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1934,7 +1981,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1964,7 +2011,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1994,7 +2041,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2024,7 +2071,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2054,7 +2101,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2084,7 +2131,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2114,7 +2161,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2144,7 +2191,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2174,7 +2221,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2204,7 +2251,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2234,7 +2281,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2264,7 +2311,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2293,7 +2340,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2322,7 +2369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2351,7 +2398,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2380,7 +2427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2409,7 +2456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2438,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2467,8 +2514,95 @@
         <v>100</v>
       </c>
     </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1435</v>
+      </c>
+      <c r="G35" s="1">
+        <v>679</v>
+      </c>
+      <c r="H35" s="1">
+        <v>485</v>
+      </c>
+      <c r="I35" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>4</formula>

--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamuratetsurou/Desktop/名称未設定フォルダ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main (1)\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0ACA6-BB99-3044-AF48-BDE457AC0C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A65C6FE-AD97-47EA-8D9D-38C50FA9C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="4980" windowWidth="14520" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_cha" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,20 +1488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2600,6 +2600,15 @@
       <c r="I37" s="4" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19"/>

--- a/data/hsr/data_hsr_cha.xlsx
+++ b/data/hsr/data_hsr_cha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main (1)\damageTool-main\data\hsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamuratetsurou/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A65C6FE-AD97-47EA-8D9D-38C50FA9C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A930EC51-A8A0-7A4B-A519-6E4CC9672C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_cha" sheetId="1" r:id="rId1"/>
@@ -33,37 +33,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>name</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>star</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>destiny</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>element</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>姫子</t>
     <rPh sb="0" eb="2">
       <t>ヒメコ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ヴェルト</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>丹恒</t>
@@ -73,18 +73,18 @@
     <rPh sb="1" eb="2">
       <t>ヒサシ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>三月なのか</t>
     <rPh sb="0" eb="2">
       <t>ミツキ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>カフカ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>銀狼</t>
@@ -94,55 +94,55 @@
     <rPh sb="1" eb="2">
       <t>オオカミ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>アーラン</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>アスター</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ヘルタ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ジェパ―ド</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ブローニャ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ゼーレ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>クラーラ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>サンポ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ペラ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>セーバル</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ナターシャ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>フック</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>景元</t>
@@ -152,7 +152,7 @@
     <rPh sb="1" eb="2">
       <t>ハジメ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>彦卿</t>
@@ -162,14 +162,14 @@
     <rPh sb="1" eb="2">
       <t>キョウ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>白露</t>
     <rPh sb="0" eb="1">
       <t>ビャク</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>停雲</t>
@@ -179,11 +179,11 @@
     <rPh sb="1" eb="2">
       <t>クモ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>素裳</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>青雀</t>
@@ -193,63 +193,63 @@
     <rPh sb="1" eb="2">
       <t>スズメ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>炎</t>
     <rPh sb="0" eb="1">
       <t>ホノオ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>物理</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>虚数</t>
     <rPh sb="0" eb="2">
       <t>キョスウ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>風</t>
     <rPh sb="0" eb="1">
       <t>カゼ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>氷</t>
     <rPh sb="0" eb="1">
       <t>コオリ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>雷</t>
     <rPh sb="0" eb="1">
       <t>カミナリ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>量子</t>
     <rPh sb="0" eb="2">
       <t>リョウシ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>壊滅</t>
     <rPh sb="0" eb="2">
       <t>カイメツ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>存護</t>
@@ -259,7 +259,7 @@
     <rPh sb="1" eb="2">
       <t>マモル</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>巡狩</t>
@@ -269,51 +269,51 @@
     <rPh sb="1" eb="2">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>豊穣</t>
     <rPh sb="0" eb="2">
       <t>ホウジョウ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>調和</t>
     <rPh sb="0" eb="2">
       <t>チョウワ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>虚無</t>
     <rPh sb="0" eb="2">
       <t>キョム</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>知恵</t>
     <rPh sb="0" eb="2">
       <t>チエ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>max_hp</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>max_atk</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>max_def</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>max_agi</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>主人公(物理)</t>
@@ -323,7 +323,7 @@
     <rPh sb="4" eb="6">
       <t>ブツリ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>主人公(炎)</t>
@@ -333,14 +333,14 @@
     <rPh sb="4" eb="5">
       <t>ホノオ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>羅刹</t>
     <rPh sb="0" eb="2">
       <t>ラセツ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>御空</t>
@@ -350,18 +350,18 @@
     <rPh sb="1" eb="2">
       <t>ソラ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>刃</t>
     <rPh sb="0" eb="1">
       <t>ジン</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>ルカ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>飲月</t>
@@ -371,7 +371,7 @@
     <rPh sb="1" eb="2">
       <t>ツキ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>符玄</t>
@@ -381,11 +381,11 @@
     <rPh sb="1" eb="2">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>リンクス</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>鏡流</t>
@@ -395,42 +395,216 @@
     <rPh sb="1" eb="2">
       <t>ナガレ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>壊滅</t>
     <rPh sb="0" eb="1">
       <t>カイメテゥ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>桂乃芬</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>トパーズ&amp;カブ</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>虚無</t>
     <rPh sb="0" eb="1">
       <t>キョム</t>
     </rPh>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="19"/>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>フォフォ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>アルジェンティ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>寒鴉</t>
+    <rPh sb="0" eb="1">
+      <t>サムウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カラス</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ルアン・メェイ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>雪衣</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ユキイ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コロモ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>Dr.レイシオ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ブラックスワン</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ミーシャ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>花火</t>
+    <rPh sb="0" eb="2">
+      <t>ハナビ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>黄泉</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨミ </t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ギャラガー</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>アベンチュリン</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ロビン</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ブートヒル</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ホタル</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ジェイド</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>豊穣</t>
+    <rPh sb="0" eb="1">
+      <t>ホウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <rPh sb="0" eb="1">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>知恵</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チエ </t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>調和</t>
+    <rPh sb="0" eb="1">
+      <t>チョウワ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <rPh sb="0" eb="1">
+      <t>🧊</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>量子</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">リョウシ </t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>壊滅</t>
+    <rPh sb="0" eb="2">
+      <t>カイメテゥ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>虚数</t>
+    <rPh sb="0" eb="1">
+      <t>キョスウ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>巡狩</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジュンシュ </t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>量子</t>
+    <rPh sb="0" eb="2">
+      <t>リョウセィ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>巡狩</t>
+    <rPh sb="0" eb="1">
+      <t>ジュンセィウ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>知恵</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チエ </t>
+    </rPh>
+    <phoneticPr fontId="20"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -927,141 +1101,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1129,6 +1306,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -1139,7 +1321,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -1150,11 +1332,6 @@
     <dxf>
       <font>
         <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -1192,9 +1369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1232,7 +1409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1338,7 +1515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1480,7 +1657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1488,20 +1665,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1531,7 +1708,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1561,7 +1738,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1591,7 +1768,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1621,7 +1798,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1651,7 +1828,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1681,7 +1858,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1711,7 +1888,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1741,7 +1918,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1771,7 +1948,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1801,7 +1978,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1831,7 +2008,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1861,7 +2038,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1891,7 +2068,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1921,7 +2098,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1951,7 +2128,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1981,7 +2158,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2011,7 +2188,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2041,7 +2218,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2071,7 +2248,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2101,7 +2278,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2131,7 +2308,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2161,7 +2338,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2191,7 +2368,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2221,7 +2398,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2251,7 +2428,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2281,7 +2458,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2311,7 +2488,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2340,7 +2517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2369,7 +2546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2398,7 +2575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2427,7 +2604,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2456,7 +2633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2485,7 +2662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2514,7 +2691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2543,7 +2720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2559,20 +2736,20 @@
       <c r="E36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F36" s="4">
+        <v>931</v>
+      </c>
+      <c r="G36" s="4">
+        <v>620</v>
+      </c>
+      <c r="H36" s="4">
+        <v>412</v>
+      </c>
+      <c r="I36" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2588,30 +2765,485 @@
       <c r="E37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="4">
+        <v>882</v>
+      </c>
+      <c r="G37" s="4">
+        <v>582</v>
+      </c>
+      <c r="H37" s="4">
+        <v>441</v>
+      </c>
+      <c r="I37" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1358</v>
+      </c>
+      <c r="G38" s="4">
+        <v>601</v>
+      </c>
+      <c r="H38" s="4">
+        <v>509</v>
+      </c>
+      <c r="I38" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1047</v>
+      </c>
+      <c r="G39" s="1">
+        <v>737</v>
+      </c>
+      <c r="H39" s="1">
+        <v>363</v>
+      </c>
+      <c r="I39" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="1">
+        <v>917</v>
+      </c>
+      <c r="G40" s="1">
+        <v>564</v>
+      </c>
+      <c r="H40" s="1">
+        <v>352</v>
+      </c>
+      <c r="I40" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1086</v>
+      </c>
+      <c r="G41" s="1">
+        <v>659</v>
+      </c>
+      <c r="H41" s="1">
+        <v>485</v>
+      </c>
+      <c r="I41" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1058</v>
+      </c>
+      <c r="G42" s="1">
+        <v>599</v>
+      </c>
+      <c r="H42" s="1">
+        <v>396</v>
+      </c>
+      <c r="I42" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1047</v>
+      </c>
+      <c r="G43" s="1">
+        <v>776</v>
+      </c>
+      <c r="H43" s="1">
+        <v>460</v>
+      </c>
+      <c r="I43" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1086</v>
+      </c>
+      <c r="G44" s="1">
+        <v>659</v>
+      </c>
+      <c r="H44" s="1">
+        <v>485</v>
+      </c>
+      <c r="I44" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1270</v>
+      </c>
+      <c r="G45" s="1">
+        <v>599</v>
+      </c>
+      <c r="H45" s="1">
+        <v>396</v>
+      </c>
+      <c r="I45" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1397</v>
+      </c>
+      <c r="G46" s="1">
+        <v>523</v>
+      </c>
+      <c r="H46" s="1">
+        <v>485</v>
+      </c>
+      <c r="I46" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1125</v>
+      </c>
+      <c r="G47" s="1">
+        <v>698</v>
+      </c>
+      <c r="H47" s="1">
+        <v>436</v>
+      </c>
+      <c r="I47" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1305</v>
+      </c>
+      <c r="G48" s="1">
+        <v>529</v>
+      </c>
+      <c r="H48" s="1">
+        <v>441</v>
+      </c>
+      <c r="I48" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1203</v>
+      </c>
+      <c r="G49" s="1">
+        <v>446</v>
+      </c>
+      <c r="H49" s="1">
+        <v>654</v>
+      </c>
+      <c r="I49" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1280</v>
+      </c>
+      <c r="G50" s="1">
+        <v>640</v>
+      </c>
+      <c r="H50" s="1">
+        <v>485</v>
+      </c>
+      <c r="I50" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1203</v>
+      </c>
+      <c r="G51" s="1">
+        <v>620</v>
+      </c>
+      <c r="H51" s="1">
+        <v>436</v>
+      </c>
+      <c r="I51" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="1">
+        <v>814</v>
+      </c>
+      <c r="G52" s="1">
+        <v>523</v>
+      </c>
+      <c r="H52" s="1">
+        <v>776</v>
+      </c>
+      <c r="I52" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I53" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="19"/>
+  <phoneticPr fontId="20"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>4</formula>
@@ -2621,23 +3253,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+      <formula>"虚数"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>"雷"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"量子"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>"虚数"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
-      <formula>"雷"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
-      <formula>"風"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"氷"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>"炎"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"風"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
